--- a/biology/Médecine/Pansement_israélien/Pansement_israélien.xlsx
+++ b/biology/Médecine/Pansement_israélien/Pansement_israélien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pansement_isra%C3%A9lien</t>
+          <t>Pansement_israélien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pansement israélien est un pansement compressif utilisé en premier secours, afin de stopper un saignement important. Il a été utilisé pour la première fois lors de la guerre de Bosnie-Herzégovine par les forces de l'OTAN, avant de se répandre très largement dans le paquetage de base de nombreuses armées[1]. Il a été dit « israélien » par les forces américaines en raison de la nationalité de son inventeur, le médecin militaire israélien Bernard Bar-Natan[2] (ou Ben-Natan). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pansement israélien est un pansement compressif utilisé en premier secours, afin de stopper un saignement important. Il a été utilisé pour la première fois lors de la guerre de Bosnie-Herzégovine par les forces de l'OTAN, avant de se répandre très largement dans le paquetage de base de nombreuses armées. Il a été dit « israélien » par les forces américaines en raison de la nationalité de son inventeur, le médecin militaire israélien Bernard Bar-Natan (ou Ben-Natan). 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pansement_isra%C3%A9lien</t>
+          <t>Pansement_israélien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce pansement compressif est comparable au coussin hémostatique d'urgence par son objectif : stopper un saignement par compression directe de la plaie. Cependant il s'en différencie par son système d'attache qui permet d'exercer une pression beaucoup plus importante : soit 88 mmHg contre 22 mmHg pour le bandage ordinaire[3],[4]. Néanmoins, la pression exercée reste inférieure à celle réalisée par un opérateur humain[5]. 
-Il est souvent présent dans les paquetages militaires et apprécié par les survivalistes, ayant l'avantage de pouvoir être mis par la victime elle-même, mais il équipe également les SMUR en France[6] ainsi que les équipes de secouristes[7] (pompiers, Croix-Rouge…).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce pansement compressif est comparable au coussin hémostatique d'urgence par son objectif : stopper un saignement par compression directe de la plaie. Cependant il s'en différencie par son système d'attache qui permet d'exercer une pression beaucoup plus importante : soit 88 mmHg contre 22 mmHg pour le bandage ordinaire,. Néanmoins, la pression exercée reste inférieure à celle réalisée par un opérateur humain. 
+Il est souvent présent dans les paquetages militaires et apprécié par les survivalistes, ayant l'avantage de pouvoir être mis par la victime elle-même, mais il équipe également les SMUR en France ainsi que les équipes de secouristes (pompiers, Croix-Rouge…).
 </t>
         </is>
       </c>
